--- a/result/with_base/134/arousal/s13_1.xlsx
+++ b/result/with_base/134/arousal/s13_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8800000250339508</v>
+        <v>0.8738839328289032</v>
       </c>
       <c r="C2" t="n">
-        <v>41655.955078125</v>
+        <v>11273.16552734375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8726136359301481</v>
+        <v>0.8685661764705882</v>
       </c>
       <c r="E2" t="n">
-        <v>41656.22407670454</v>
+        <v>11275.47845818015</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40853.951171875</v>
+        <v>10965.14208984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.911818184635856</v>
+        <v>0.890756302020129</v>
       </c>
       <c r="E3" t="n">
-        <v>40854.50177556818</v>
+        <v>10966.61690027574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40065.748046875</v>
+        <v>10663.08837890625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9260227300904014</v>
+        <v>0.9086790961377761</v>
       </c>
       <c r="E4" t="n">
-        <v>40065.10298295454</v>
+        <v>10664.26240808824</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39287.625</v>
+        <v>10367.50634765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9539772759784352</v>
+        <v>0.9290309863931993</v>
       </c>
       <c r="E5" t="n">
-        <v>39287.30007102273</v>
+        <v>10367.82393152574</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38525.779296875</v>
+        <v>10077.99951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9506818110292609</v>
+        <v>0.9394695373142466</v>
       </c>
       <c r="E6" t="n">
-        <v>38524.5703125</v>
+        <v>10078.22064568015</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94140625</v>
       </c>
       <c r="C7" t="n">
-        <v>37773.611328125</v>
+        <v>9794.82763671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9738636396147988</v>
+        <v>0.9506302510990816</v>
       </c>
       <c r="E7" t="n">
-        <v>37772.94247159091</v>
+        <v>9794.864372702206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37037.35546875</v>
+        <v>9518.1171875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9672727368094705</v>
+        <v>0.9559480057043188</v>
       </c>
       <c r="E8" t="n">
-        <v>37036.18785511364</v>
+        <v>9518.310604319853</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94921875</v>
       </c>
       <c r="C9" t="n">
-        <v>36313.1796875</v>
+        <v>9249.18603515625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9801136526194486</v>
+        <v>0.9438025215092827</v>
       </c>
       <c r="E9" t="n">
-        <v>36311.88032670454</v>
+        <v>9249.069565716913</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94921875</v>
       </c>
       <c r="C10" t="n">
-        <v>35602.474609375</v>
+        <v>8986.0458984375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9772727381099354</v>
+        <v>0.9499737409984365</v>
       </c>
       <c r="E10" t="n">
-        <v>35601.41228693182</v>
+        <v>8985.823701746323</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C11" t="n">
-        <v>34904.408203125</v>
+        <v>8729.12255859375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9852272868156433</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E11" t="n">
-        <v>34903.76491477273</v>
+        <v>8728.900045955883</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C12" t="n">
-        <v>34220.4921875</v>
+        <v>8478.7060546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9730681831186468</v>
+        <v>0.9780724784907173</v>
       </c>
       <c r="E12" t="n">
-        <v>34219.65021306818</v>
+        <v>8478.663028492647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33548.40234375</v>
+        <v>8235.14794921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9830681952563199</v>
+        <v>0.9751838235294118</v>
       </c>
       <c r="E13" t="n">
-        <v>33547.41583806818</v>
+        <v>8235.00155101103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C14" t="n">
-        <v>32888.8359375</v>
+        <v>7997.53125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9910227331248197</v>
+        <v>0.9785976900773889</v>
       </c>
       <c r="E14" t="n">
-        <v>32887.94815340909</v>
+        <v>7997.45059742647</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32242.1142578125</v>
+        <v>7766.177734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9832589275696698</v>
       </c>
       <c r="E15" t="n">
-        <v>32241.09747869318</v>
+        <v>7766.019875919118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C16" t="n">
-        <v>31607.734375</v>
+        <v>7540.840576171875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9869318279353055</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E16" t="n">
-        <v>31606.43536931818</v>
+        <v>7540.62735523897</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C17" t="n">
-        <v>30985.1328125</v>
+        <v>7321.387451171875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9870454668998718</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E17" t="n">
-        <v>30983.48668323864</v>
+        <v>7321.21435546875</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9782366156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30373.318359375</v>
+        <v>7107.63525390625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9870454668998718</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E18" t="n">
-        <v>30372.54936079546</v>
+        <v>7107.49462890625</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C19" t="n">
-        <v>29773.6552734375</v>
+        <v>6900.093994140625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9551601900773889</v>
       </c>
       <c r="E19" t="n">
-        <v>29772.83238636364</v>
+        <v>6899.762350643382</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29185.416015625</v>
+        <v>6697.44677734375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9647452726083643</v>
       </c>
       <c r="E20" t="n">
-        <v>29184.701171875</v>
+        <v>6697.211196001838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28608.1533203125</v>
+        <v>6500.40625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9703912805108463</v>
       </c>
       <c r="E21" t="n">
-        <v>28607.56587357954</v>
+        <v>6500.113712086397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28041.9345703125</v>
+        <v>6308.40869140625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E22" t="n">
-        <v>28041.294921875</v>
+        <v>6308.238941865809</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27486.2802734375</v>
+        <v>6121.943359375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E23" t="n">
-        <v>27485.86310369318</v>
+        <v>6121.682071461397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C24" t="n">
-        <v>26941.244140625</v>
+        <v>5940.43798828125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E24" t="n">
-        <v>26940.77024147727</v>
+        <v>5940.129538143382</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26406.6875</v>
+        <v>5763.593505859375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E25" t="n">
-        <v>26406.10475852273</v>
+        <v>5763.4912109375</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>25882.2763671875</v>
+        <v>5591.875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9873949569814345</v>
       </c>
       <c r="E26" t="n">
-        <v>25881.67489346591</v>
+        <v>5591.668514476103</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C27" t="n">
-        <v>25367.74609375</v>
+        <v>5424.70703125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E27" t="n">
-        <v>25367.03604403409</v>
+        <v>5424.49853515625</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C28" t="n">
-        <v>24862.578125</v>
+        <v>5262.07373046875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E28" t="n">
-        <v>24862.16281960227</v>
+        <v>5261.907599954044</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24367.90234375</v>
+        <v>5104.060302734375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9734112409984365</v>
       </c>
       <c r="E29" t="n">
-        <v>24366.93643465909</v>
+        <v>5103.845186121323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>23881.71875</v>
+        <v>4950.192626953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E30" t="n">
-        <v>23880.93536931818</v>
+        <v>4949.940630744485</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23405.1171875</v>
+        <v>4800.489990234375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E31" t="n">
-        <v>23404.24183238636</v>
+        <v>4800.366900275735</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>22937.330078125</v>
+        <v>4655.05615234375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E32" t="n">
-        <v>22936.57066761364</v>
+        <v>4654.932157628677</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22479.013671875</v>
+        <v>4513.636474609375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E33" t="n">
-        <v>22477.873046875</v>
+        <v>4513.513614430147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22028.40625</v>
+        <v>4376.12939453125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E34" t="n">
-        <v>22027.80788352273</v>
+        <v>4376.019244025735</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21587.423828125</v>
+        <v>4242.38427734375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9957326685681063</v>
       </c>
       <c r="E35" t="n">
-        <v>21586.42560369318</v>
+        <v>4242.315372242647</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21153.6796875</v>
+        <v>4112.409912109375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E36" t="n">
-        <v>21153.15145596591</v>
+        <v>4112.334041819853</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C37" t="n">
-        <v>20728.85546875</v>
+        <v>3986.123291015625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9969318183985624</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E37" t="n">
-        <v>20728.22088068182</v>
+        <v>3986.035759420956</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20311.947265625</v>
+        <v>3863.365234375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E38" t="n">
-        <v>20311.43323863636</v>
+        <v>3863.275419347427</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C39" t="n">
-        <v>19902.943359375</v>
+        <v>3744.033447265625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E39" t="n">
-        <v>19902.46857244318</v>
+        <v>3743.902358111213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19502.3935546875</v>
+        <v>3628.010620117188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E40" t="n">
-        <v>19501.39666193182</v>
+        <v>3627.893095128677</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19108.2861328125</v>
+        <v>3515.319091796875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E41" t="n">
-        <v>19107.87926136364</v>
+        <v>3515.171372357537</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18722.2119140625</v>
+        <v>3405.73828125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E42" t="n">
-        <v>18721.85245028409</v>
+        <v>3405.640495749081</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18343.54296875</v>
+        <v>3299.311767578125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E43" t="n">
-        <v>18343.15216619318</v>
+        <v>3299.248118681066</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C44" t="n">
-        <v>17972.052734375</v>
+        <v>3195.966674804688</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E44" t="n">
-        <v>17971.64506392046</v>
+        <v>3195.806726792279</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17607.861328125</v>
+        <v>3095.427124023438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E45" t="n">
-        <v>17607.28941761364</v>
+        <v>3095.316276999081</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17250.1806640625</v>
+        <v>2997.829223632812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9921875</v>
       </c>
       <c r="E46" t="n">
-        <v>17249.75852272727</v>
+        <v>2997.708295036765</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C47" t="n">
-        <v>16899.5810546875</v>
+        <v>2903.03173828125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E47" t="n">
-        <v>16899.15625</v>
+        <v>2902.904799517463</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16555.4404296875</v>
+        <v>2810.873657226562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E48" t="n">
-        <v>16555.16850142046</v>
+        <v>2810.798727596507</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16218.53564453125</v>
+        <v>2721.404541015625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E49" t="n">
-        <v>16217.81809303977</v>
+        <v>2721.352811925552</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C50" t="n">
-        <v>15887.12890625</v>
+        <v>2634.639770507812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9818146018420949</v>
       </c>
       <c r="E50" t="n">
-        <v>15886.80752840909</v>
+        <v>2634.506433823529</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,872 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C51" t="n">
-        <v>15562.59033203125</v>
+        <v>2550.230224609375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E51" t="n">
-        <v>15562.18732244318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15244.02294921875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15243.69753196023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14931.6904296875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14931.31960227273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14625.5009765625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14624.93909801136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14324.673828125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14324.38902698864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14029.9482421875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14029.62544389205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13740.81884765625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13740.51029829545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13457.201171875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13456.93625710227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13179.14013671875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13178.81170099432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12906.20556640625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12905.96466619318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12638.56201171875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12638.400390625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12376.3095703125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12375.99369673295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12118.88525390625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12118.61692116477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11866.482421875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9984090924263</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11866.20090553977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11618.95458984375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11618.66770241477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11376.31640625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11375.93625710227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11138.1337890625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11137.87144886364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10904.6875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10904.41539417614</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10675.732421875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10675.46173650568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10451.40869140625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10450.9599609375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10230.9697265625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10230.79092684659</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10015.1396484375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10014.91752485795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9803.3837890625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9803.22567471591</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9595.81103515625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9595.665571732954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9392.31591796875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9392.141956676136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9192.75537109375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9192.5927734375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8997.2802734375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9898863705721769</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8996.982155539772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8805.314453125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8805.124289772728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8617.23974609375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8617.077592329546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8432.8671875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8432.695845170454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8252.06201171875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8251.933771306818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4838709677419355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5483870967741935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01435406698564593</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01435406698564593</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08133971291866028</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.08133971291866028</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1100478468899522</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1100478468899522</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8086124401913876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8660287081339713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8899521531100478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8899521531100478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8995215311004785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9186602870813397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9186602870813397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9856459330143541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9856459330143541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9925914492977311</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2550.142707375919</v>
       </c>
     </row>
   </sheetData>
